--- a/UK_CO2.xlsx
+++ b/UK_CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Adam\Dropbox\Quarto\EPC_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499CECA2-3DF1-4620-9AB9-C5C0693F6D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901CF67-10AE-4C44-90FA-983703438BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="390" windowWidth="23700" windowHeight="15855" activeTab="3" xr2:uid="{3EB6F673-8180-4323-8C6C-F7630D5D99E3}"/>
+    <workbookView xWindow="10035" yWindow="1245" windowWidth="23700" windowHeight="15855" activeTab="3" xr2:uid="{3EB6F673-8180-4323-8C6C-F7630D5D99E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41891,9 +41891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAD07DE-2B37-45F0-BC8A-1B2B368C02A8}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42951,7 +42949,7 @@
   <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42961,7 +42959,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
